--- a/실무_엑셀_예제_파일/Chapter02/02-009.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-009.xlsx
@@ -1,41 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D11DE-E4CD-4947-B129-2169EA92890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82E952-2BC0-4FCF-B032-E78652923BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{3E212871-2593-4DB8-B402-827A1B7E1E77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3E212871-2593-4DB8-B402-827A1B7E1E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="다크레전드">Sheet1!$C$7:$J$7</definedName>
+    <definedName name="대한민국">Sheet1!$C$6:$C$17</definedName>
+    <definedName name="덴마크">Sheet1!$J$6:$J$17</definedName>
+    <definedName name="마비노스">Sheet1!$C$9:$J$9</definedName>
+    <definedName name="미국">Sheet1!$F$6:$F$17</definedName>
+    <definedName name="버블파이터">Sheet1!$C$16:$J$16</definedName>
+    <definedName name="아키에이스">Sheet1!$C$11:$J$11</definedName>
+    <definedName name="알랜시아">Sheet1!$C$8:$J$8</definedName>
+    <definedName name="영국">Sheet1!$I$6:$I$17</definedName>
+    <definedName name="용의둥지">Sheet1!$C$13:$J$13</definedName>
+    <definedName name="윈드월드">Sheet1!$C$6:$J$6</definedName>
+    <definedName name="일본">Sheet1!$E$6:$E$17</definedName>
+    <definedName name="중국">Sheet1!$D$6:$D$17</definedName>
+    <definedName name="카트라이더">Sheet1!$C$15:$J$15</definedName>
+    <definedName name="캐나다">Sheet1!$G$6:$G$17</definedName>
+    <definedName name="클로저">Sheet1!$C$12:$J$12</definedName>
+    <definedName name="테일즈러너">Sheet1!$C$17:$J$17</definedName>
+    <definedName name="파이널스토리">Sheet1!$C$10:$J$10</definedName>
+    <definedName name="피파온라인">Sheet1!$C$14:$J$14</definedName>
+    <definedName name="호주">Sheet1!$H$6:$H$17</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>알랜시아</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,6 +155,12 @@
   <si>
     <t>(단위 : US$)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>다크레전드</t>
   </si>
 </sst>
 </file>
@@ -608,20 +626,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4CFD59-B7D1-48F2-AB5F-75FF4E8E3C55}">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.58203125" customWidth="1"/>
     <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
@@ -634,13 +654,13 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -669,9 +689,12 @@
       <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="7">
+        <f>SUM(일본)</f>
+        <v>1833.9699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
@@ -702,9 +725,12 @@
       <c r="L6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="7">
+        <f>AVERAGE(클로저)</f>
+        <v>163.86625000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -733,7 +759,7 @@
         <v>142.19</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -764,9 +790,11 @@
       <c r="L8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -797,9 +825,11 @@
       <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -830,9 +860,12 @@
       <c r="L10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="7">
+        <f ca="1">INDIRECT(M8) INDIRECT(M9)</f>
+        <v>110.63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -861,7 +894,7 @@
         <v>127.66</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
@@ -890,7 +923,7 @@
         <v>186.46</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -919,7 +952,7 @@
         <v>128.41</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -948,7 +981,7 @@
         <v>139.34</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
@@ -977,7 +1010,7 @@
         <v>186.39</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1039,7 @@
         <v>196.18</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1040,6 +1073,14 @@
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8" xr:uid="{6606B1F3-FD6D-45E5-AAD3-8D532779672F}">
+      <formula1>$C$5:$J$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9" xr:uid="{D3D62BD6-D9FD-4AE4-9941-D96B9E9D8A7E}">
+      <formula1>$B$6:$B$17</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>